--- a/scaling/es_e.xlsx
+++ b/scaling/es_e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocossard/Desktop/big_data_exam/scaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B10E850-77C6-4847-A3BD-5445E8FBDA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB10BB-CA61-AE4D-946B-D2C495A1D071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30400" yWindow="1020" windowWidth="28040" windowHeight="16120" xr2:uid="{05FC5043-3F42-FD47-B2ED-3078645D04B0}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>#thread</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>#pragma</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>Time [ms]</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00000000000000"/>
-    <numFmt numFmtId="187" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,8 +154,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -474,7 +474,7 @@
   <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,15 +521,15 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>2.71828182845899</v>
@@ -541,12 +541,12 @@
         <v>2.9903200000000002E-4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>2.71828182845905</v>
@@ -558,12 +558,12 @@
         <v>3.5678599999999998E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>2.71828182845899</v>
@@ -575,12 +575,12 @@
         <v>3.0270499999999999E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>2.1766148865983799</v>
@@ -592,12 +592,12 @@
         <v>2.4728E-2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -609,12 +609,12 @@
         <v>4.8437000000000001E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>561.47991436235304</v>
@@ -626,7 +626,7 @@
         <v>3.1016599999999998E-2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
